--- a/src/test/resources/testData/AccountEdit.xlsx
+++ b/src/test/resources/testData/AccountEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>6512553541</t>
+  </si>
+  <si>
+    <t>6607072659</t>
+  </si>
+  <si>
+    <t>8965711041</t>
+  </si>
+  <si>
+    <t>3785670866</t>
   </si>
 </sst>
 </file>
@@ -540,7 +549,7 @@
         <v>296311</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountEdit.xlsx
+++ b/src/test/resources/testData/AccountEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>3785670866</t>
+  </si>
+  <si>
+    <t>5098371229</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
         <v>296311</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountEdit.xlsx
+++ b/src/test/resources/testData/AccountEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>5098371229</t>
+  </si>
+  <si>
+    <t>4531199961</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
         <v>296311</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>

--- a/src/test/resources/testData/AccountEdit.xlsx
+++ b/src/test/resources/testData/AccountEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>4531199961</t>
+  </si>
+  <si>
+    <t>8252084557</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
         <v>296311</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
